--- a/biology/Biologie cellulaire et moléculaire/Carl_Woese/Carl_Woese.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Carl_Woese/Carl_Woese.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Carl Richard Woese, né le 15 juillet 1928 à Syracuse et mort le 30 décembre 2012 à Urbana[1], est un microbiologiste américain, connu principalement pour ses travaux de  phylogénétique moléculaire du vivant et pour la définition, en 1977, du domaine Archaea[2] (un des trois domaines ou règnes primaires du vivant). Il réalise de telles découvertes par l'analyse phylogénétique de la séquence de l'ARN ribosomique 16S, une technique qu'il mit au point avec ses collaborateurs et qui est de nos jours celle employée pour classer toute nouvelle espèce bactérienne ou archée. Il a également proposé en 1967 l'antériorité de l'ARN sur l'ADN, théorie reprise en 1986 par Walter Gilbert sous le nom d'RNA world.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Carl Richard Woese, né le 15 juillet 1928 à Syracuse et mort le 30 décembre 2012 à Urbana, est un microbiologiste américain, connu principalement pour ses travaux de  phylogénétique moléculaire du vivant et pour la définition, en 1977, du domaine Archaea (un des trois domaines ou règnes primaires du vivant). Il réalise de telles découvertes par l'analyse phylogénétique de la séquence de l'ARN ribosomique 16S, une technique qu'il mit au point avec ses collaborateurs et qui est de nos jours celle employée pour classer toute nouvelle espèce bactérienne ou archée. Il a également proposé en 1967 l'antériorité de l'ARN sur l'ADN, théorie reprise en 1986 par Walter Gilbert sous le nom d'RNA world.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Travaux scientifiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Diplômé d'Amherst College en 1950, Carl Woese soutient une thèse en biophysique à l'Université Yale en 1953 et devient enseignant à l'université Stanley O. Ikenberry (Illinois).
 Il a reçu de nombreuses récompenses pour ses travaux scientifiques :
@@ -550,7 +564,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>George E. Fox, Kenneth R. Pechman &amp; Carl R. Woese, "Comparative Cataloging of 16s Ribosomal Ribonucleic Acid : Molecular Approach to Procaryotic Systematics", International Journal of Systematic Bacteriology, Vol.27, No.1, January 1977, p. 44-57. DOI 10.1099/00207713-27-1-44
 Carl R. Woese &amp; George E. Fox, "The Concept of Cellular Evolution", Journal of Molecular Evolution, Vol.10, No.1, March 1977, p. 1-6. DOI 10.1007/BF01796132
